--- a/xlsForms/Encuestas Ingeniería/Encuesta Observaciones de campo.xlsx
+++ b/xlsForms/Encuestas Ingeniería/Encuesta Observaciones de campo.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\Encuestas Ingeniería\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F88F93-7441-47EF-B52D-AE943E02D827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +26,782 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="256">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>submission_url</t>
+  </si>
+  <si>
+    <t>Encuesta Observaciones de campo</t>
+  </si>
+  <si>
+    <t>observcampo</t>
+  </si>
+  <si>
+    <t>begin_group</t>
+  </si>
+  <si>
+    <t>Observación Tipo</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>tipo_observacion</t>
+  </si>
+  <si>
+    <t>Ingresa el tipo de observación</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Ingresa el número asociado</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>end_group</t>
+  </si>
+  <si>
+    <t>Información general</t>
+  </si>
+  <si>
+    <t>info_general</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>coordenadas</t>
+  </si>
+  <si>
+    <t>Coordenadas</t>
+  </si>
+  <si>
+    <t>descripcion_sitio</t>
+  </si>
+  <si>
+    <t>Descripción del Sitio</t>
+  </si>
+  <si>
+    <t>sitio</t>
+  </si>
+  <si>
+    <t>Sitio</t>
+  </si>
+  <si>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>paisaje</t>
+  </si>
+  <si>
+    <t>Paisaje</t>
+  </si>
+  <si>
+    <t>tipo_relieve</t>
+  </si>
+  <si>
+    <t>Tipo de Relieve</t>
+  </si>
+  <si>
+    <t>forma_terreno</t>
+  </si>
+  <si>
+    <t>Forma de Terreno</t>
+  </si>
+  <si>
+    <t>material_parental</t>
+  </si>
+  <si>
+    <t>Material Parental</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>Pendiente (%)</t>
+  </si>
+  <si>
+    <t>gradiente</t>
+  </si>
+  <si>
+    <t>Gradiente</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>clima_edafico</t>
+  </si>
+  <si>
+    <t>regimen_temp</t>
+  </si>
+  <si>
+    <t>Régimen de Temperatura</t>
+  </si>
+  <si>
+    <t>regimen_humedad</t>
+  </si>
+  <si>
+    <t>Régimen de Humedad</t>
+  </si>
+  <si>
+    <t>erosion</t>
+  </si>
+  <si>
+    <t>grado_frecuencia</t>
+  </si>
+  <si>
+    <t>Grado de Frecuencia</t>
+  </si>
+  <si>
+    <t>afloramientos_roc</t>
+  </si>
+  <si>
+    <t>Superficie cubierta en %</t>
+  </si>
+  <si>
+    <t>drenaje_interno</t>
+  </si>
+  <si>
+    <t>Drenaje Interno</t>
+  </si>
+  <si>
+    <t>drenaje_externo</t>
+  </si>
+  <si>
+    <t>clase_afloramientos</t>
+  </si>
+  <si>
+    <t>superficie_cubierta_roc</t>
+  </si>
+  <si>
+    <t>pedregosidad_superficial</t>
+  </si>
+  <si>
+    <t>tipo_pedregosidad</t>
+  </si>
+  <si>
+    <t>clase_pedregosidad</t>
+  </si>
+  <si>
+    <t>superficie_cubierta_ped</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Drenajer Externo</t>
+  </si>
+  <si>
+    <t>drenaje_natural</t>
+  </si>
+  <si>
+    <t>Drenaje Natural</t>
+  </si>
+  <si>
+    <t>bloque_hidrologico</t>
+  </si>
+  <si>
+    <t>Datos Hidrológicos</t>
+  </si>
+  <si>
+    <t>frecuencia_inundaciones</t>
+  </si>
+  <si>
+    <t>duracion_inundaciones</t>
+  </si>
+  <si>
+    <t>frecuencia_encharcamientos</t>
+  </si>
+  <si>
+    <t>duracion_encharcamientos</t>
+  </si>
+  <si>
+    <t>profundidad_freatico</t>
+  </si>
+  <si>
+    <t>clase_profundidad</t>
+  </si>
+  <si>
+    <t>limitada_por</t>
+  </si>
+  <si>
+    <t>Limitada por</t>
+  </si>
+  <si>
+    <t>profundidad_factor_lim</t>
+  </si>
+  <si>
+    <t>Prof. Factor Lim</t>
+  </si>
+  <si>
+    <t>Fin Datos Hidrológicos</t>
+  </si>
+  <si>
+    <t>inundaciones</t>
+  </si>
+  <si>
+    <t>encharcamientos</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>nivel_freatico</t>
+  </si>
+  <si>
+    <t>Profundidad (cm)</t>
+  </si>
+  <si>
+    <t>profund_efectiva</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>bloque_vegetacion_uso</t>
+  </si>
+  <si>
+    <t>Vegetación y Uso Actual</t>
+  </si>
+  <si>
+    <t>vegetacion_natural</t>
+  </si>
+  <si>
+    <t>Vegetación Natural</t>
+  </si>
+  <si>
+    <t>uso_actual</t>
+  </si>
+  <si>
+    <t>Uso Actual</t>
+  </si>
+  <si>
+    <t>limitante_uso</t>
+  </si>
+  <si>
+    <t>Limitante del Uso</t>
+  </si>
+  <si>
+    <t>nombres_cultivos_pastos</t>
+  </si>
+  <si>
+    <t>Nombres de Cultivos o Pastos</t>
+  </si>
+  <si>
+    <t>clase_agrologica</t>
+  </si>
+  <si>
+    <t>Clase Agrológica</t>
+  </si>
+  <si>
+    <t>subclase_agrologica</t>
+  </si>
+  <si>
+    <t>Subclase Agrológica</t>
+  </si>
+  <si>
+    <t>Fin Vegetación y Uso Actual</t>
+  </si>
+  <si>
+    <t>Clasificación agrológica</t>
+  </si>
+  <si>
+    <t>clasif_agro</t>
+  </si>
+  <si>
+    <t>bloque_grietas_sales</t>
+  </si>
+  <si>
+    <t>Grietas y Presencia de Sales</t>
+  </si>
+  <si>
+    <t>grosor_grietas</t>
+  </si>
+  <si>
+    <t>Grosor (cm)</t>
+  </si>
+  <si>
+    <t>longitud_grietas</t>
+  </si>
+  <si>
+    <t>Longitud (cm)</t>
+  </si>
+  <si>
+    <t>evidencias_sales</t>
+  </si>
+  <si>
+    <t>Evidencias de Sales</t>
+  </si>
+  <si>
+    <t>Fin Grietas y Presencia de Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones </t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>observaciones</t>
+  </si>
+  <si>
+    <t>drenaje</t>
+  </si>
+  <si>
+    <t>bloque_tipo_observacion</t>
+  </si>
+  <si>
+    <t>Tipo de Observación</t>
+  </si>
+  <si>
+    <t>Seleccione un tipo de observación</t>
+  </si>
+  <si>
+    <t>Fin Tipo de Observación</t>
+  </si>
+  <si>
+    <t>bloque_simbolo_geomorfologico</t>
+  </si>
+  <si>
+    <t>Símbolo Geomorfológico</t>
+  </si>
+  <si>
+    <t>simbolo_geomorfologico</t>
+  </si>
+  <si>
+    <t>Ingrese el símbolo geomorfológico</t>
+  </si>
+  <si>
+    <t>taxonomia</t>
+  </si>
+  <si>
+    <t>Taxonomía</t>
+  </si>
+  <si>
+    <t>Ingrese la taxonomía</t>
+  </si>
+  <si>
+    <t>epipedon</t>
+  </si>
+  <si>
+    <t>Epipedón</t>
+  </si>
+  <si>
+    <t>Ingrese el epipedón si aplica</t>
+  </si>
+  <si>
+    <t>endopedon</t>
+  </si>
+  <si>
+    <t>Endopedón</t>
+  </si>
+  <si>
+    <t>Ingrese el endopedón si aplica</t>
+  </si>
+  <si>
+    <t>otras_caracteristicas</t>
+  </si>
+  <si>
+    <t>Otras Características</t>
+  </si>
+  <si>
+    <t>Detalle cualquier característica adicional</t>
+  </si>
+  <si>
+    <t>Fin Símbolo Geomorfológico</t>
+  </si>
+  <si>
+    <t>select_one tipo_observacion</t>
+  </si>
+  <si>
+    <t>Detallada (OD)</t>
+  </si>
+  <si>
+    <t>Comprobación (OC)</t>
+  </si>
+  <si>
+    <t>Nota de campo (NC)</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>oc</t>
+  </si>
+  <si>
+    <t>begin_repeat</t>
+  </si>
+  <si>
+    <t>bloque_perfil_suelo</t>
+  </si>
+  <si>
+    <t>Registro de Perfil de Suelo</t>
+  </si>
+  <si>
+    <t>Registre los datos por fila</t>
+  </si>
+  <si>
+    <t>profundidad</t>
+  </si>
+  <si>
+    <t>Ingrese la profundidad en cm</t>
+  </si>
+  <si>
+    <t>nomenclatura</t>
+  </si>
+  <si>
+    <t>Nomenclatura</t>
+  </si>
+  <si>
+    <t>Especifique la nomenclatura</t>
+  </si>
+  <si>
+    <t>color_munsell1</t>
+  </si>
+  <si>
+    <t>Color Munsell 1</t>
+  </si>
+  <si>
+    <t>Especifique el primer color</t>
+  </si>
+  <si>
+    <t>porcentaje_color1</t>
+  </si>
+  <si>
+    <t>% Color Munsell 1</t>
+  </si>
+  <si>
+    <t>Ingrese el porcentaje del primer color</t>
+  </si>
+  <si>
+    <t>color_munsell2</t>
+  </si>
+  <si>
+    <t>Color Munsell 2</t>
+  </si>
+  <si>
+    <t>${porcentaje_color1} &lt; 100</t>
+  </si>
+  <si>
+    <t>Especifique el segundo color</t>
+  </si>
+  <si>
+    <t>porcentaje_color2</t>
+  </si>
+  <si>
+    <t>% Color Munsell 2</t>
+  </si>
+  <si>
+    <t>Ingrese el porcentaje del segundo color</t>
+  </si>
+  <si>
+    <t>color_munsell3</t>
+  </si>
+  <si>
+    <t>Color Munsell 3</t>
+  </si>
+  <si>
+    <t>${porcentaje_color1} + ${porcentaje_color2} &lt; 100</t>
+  </si>
+  <si>
+    <t>Especifique el tercer color</t>
+  </si>
+  <si>
+    <t>porcentaje_color3</t>
+  </si>
+  <si>
+    <t>% Color Munsell 3</t>
+  </si>
+  <si>
+    <t>Ingrese el porcentaje del tercer color</t>
+  </si>
+  <si>
+    <t>textura_suelo</t>
+  </si>
+  <si>
+    <t>Textura del Suelo</t>
+  </si>
+  <si>
+    <t>Describa la textura del suelo</t>
+  </si>
+  <si>
+    <t>tipo_frag_roca</t>
+  </si>
+  <si>
+    <t>Tipo de Fragmento de Roca</t>
+  </si>
+  <si>
+    <t>Especifique el tipo de fragmento</t>
+  </si>
+  <si>
+    <t>forma_frag_roca</t>
+  </si>
+  <si>
+    <t>Forma de Fragmento de Roca</t>
+  </si>
+  <si>
+    <t>Especifique la forma de fragmento</t>
+  </si>
+  <si>
+    <t>porcentaje_frag_roca</t>
+  </si>
+  <si>
+    <t>% de Fragmento de Roca</t>
+  </si>
+  <si>
+    <t>Ingrese el porcentaje de fragmento</t>
+  </si>
+  <si>
+    <t>tipo_estructura</t>
+  </si>
+  <si>
+    <t>Tipo de Estructura</t>
+  </si>
+  <si>
+    <t>Especifique el tipo de estructura</t>
+  </si>
+  <si>
+    <t>clase_estructura</t>
+  </si>
+  <si>
+    <t>Clase de Estructura</t>
+  </si>
+  <si>
+    <t>Especifique la clase de estructura</t>
+  </si>
+  <si>
+    <t>grado_estructura</t>
+  </si>
+  <si>
+    <t>Grado de Estructura</t>
+  </si>
+  <si>
+    <t>Especifique el grado de estructura</t>
+  </si>
+  <si>
+    <t>consistencia</t>
+  </si>
+  <si>
+    <t>Consistencia</t>
+  </si>
+  <si>
+    <t>Seleccione una opción</t>
+  </si>
+  <si>
+    <t>reacciones</t>
+  </si>
+  <si>
+    <t>Reacciones</t>
+  </si>
+  <si>
+    <t>Seleccione todas las opciones aplicables</t>
+  </si>
+  <si>
+    <t>end_repeat</t>
+  </si>
+  <si>
+    <t>Fin Registro de Perfil</t>
+  </si>
+  <si>
+    <t>select_one consistencia</t>
+  </si>
+  <si>
+    <t>select_multiple reacciones</t>
+  </si>
+  <si>
+    <t>seco</t>
+  </si>
+  <si>
+    <t>Seco</t>
+  </si>
+  <si>
+    <t>humedo</t>
+  </si>
+  <si>
+    <t>Húmedo</t>
+  </si>
+  <si>
+    <t>mojado</t>
+  </si>
+  <si>
+    <t>Mojado</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>naf</t>
+  </si>
+  <si>
+    <t>NaF</t>
+  </si>
+  <si>
+    <t>hcl</t>
+  </si>
+  <si>
+    <t>HCl</t>
+  </si>
+  <si>
+    <t>h2o2</t>
+  </si>
+  <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>Alfa Dypiridil</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>clase</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superficie cubierta en % </t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1AYOE6_hPKVafx2ca8efhPGpz0tLr4oQ3XfGUkpOMKUc/edit?usp=drive_link</t>
+  </si>
+  <si>
+    <t># &lt;span style="color:red"&gt;Clima Edáfico&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t># &lt;span style="color:red"&gt;Erosión&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t># &lt;span style="color:red"&gt;Afloramientos Rocosos&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t># &lt;span style="color:red"&gt;Pedregosidad Superficial&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t># &lt;span style="color:red"&gt;Drenaje&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t># &lt;span style="color:green"&gt;Inundaciones&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t># &lt;span style="color:green"&gt;Encharcamientos&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t># &lt;span style="color:green"&gt;Nivel Freático&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t># &lt;span style="color:green"&gt;Profundidad Efectiva&lt;/span&gt;</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +809,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +859,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1199,1786 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="G70" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34:A36 A95:A1048576" xr:uid="{FB8D16EC-B84B-4FA0-ABB5-08DF1FC3B6DC}">
+      <formula1>"text,integer,decimal,date,time,dateTime,select_one,select_multiple,rank,note,image,audio,video,file,barcode,calculate,geopoint,geotrace,geoshape,begin_group,end_group,begin_repeat,end_repeat"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0054A61-D1E8-452D-BF66-22C6C98C8C0C}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DFFDC3-E07D-46A5-90D7-FEF7A1A7015B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="107.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>